--- a/trunk/AmwayMeeting/Document/Distributor Quota.xlsx
+++ b/trunk/AmwayMeeting/Document/Distributor Quota.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\AmwayMeetingSubsidy2014\AmwayMeeting\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKING\Amway\AmwayMeeting\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>UserID</t>
-  </si>
-  <si>
-    <t>PaxID</t>
   </si>
   <si>
     <t>PERIODID</t>
@@ -58,18 +55,6 @@
   </si>
   <si>
     <t>ADA</t>
-  </si>
-  <si>
-    <t>1000pax</t>
-  </si>
-  <si>
-    <t>2000pax</t>
-  </si>
-  <si>
-    <t>500pax</t>
-  </si>
-  <si>
-    <t>100pax</t>
   </si>
 </sst>
 </file>
@@ -150,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -171,6 +156,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +452,7 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
@@ -480,36 +468,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1748</v>
       </c>
       <c r="C2" s="1">
         <v>2021296</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
+      <c r="D2" s="10">
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -528,14 +516,17 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>4004</v>
       </c>
       <c r="C3" s="1">
         <v>2009188</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+      <c r="D3" s="10">
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -554,14 +545,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>4004</v>
       </c>
       <c r="C4" s="3">
         <v>2009188</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
+      <c r="D4" s="10">
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -580,14 +574,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>1173</v>
       </c>
       <c r="C5" s="1">
         <v>2009209</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
+      <c r="D5" s="10">
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -606,14 +603,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
         <v>1738</v>
       </c>
       <c r="C6" s="1">
         <v>2019321</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
+      <c r="D6" s="10">
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -632,14 +632,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
         <v>1738</v>
       </c>
       <c r="C7" s="1">
         <v>2019321</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
+      <c r="D7" s="10">
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -658,14 +661,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
         <v>1662</v>
       </c>
       <c r="C8" s="1">
         <v>2008982</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
+      <c r="D8" s="10">
+        <v>5</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -684,14 +690,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
         <v>1662</v>
       </c>
       <c r="C9" s="1">
         <v>2008982</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
+      <c r="D9" s="10">
+        <v>6</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -710,14 +719,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
         <v>1683</v>
       </c>
       <c r="C10" s="1">
         <v>2010479</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
+      <c r="D10" s="10">
+        <v>5</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -736,14 +748,17 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
         <v>1683</v>
       </c>
       <c r="C11" s="1">
         <v>2010479</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
+      <c r="D11" s="10">
+        <v>6</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -762,14 +777,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12">
         <v>6627</v>
       </c>
       <c r="C12" s="5">
         <v>2028263</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
+      <c r="D12" s="10">
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -788,14 +806,17 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13">
         <v>6627</v>
       </c>
       <c r="C13" s="1">
         <v>2028263</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
+      <c r="D13" s="10">
+        <v>5</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -814,14 +835,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14">
         <v>1761</v>
       </c>
       <c r="C14" s="5">
         <v>2028106</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
+      <c r="D14" s="10">
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -840,14 +864,17 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15">
         <v>1761</v>
       </c>
       <c r="C15" s="5">
         <v>2028106</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
+      <c r="D15" s="10">
+        <v>4</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -866,14 +893,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16">
         <v>1761</v>
       </c>
       <c r="C16" s="5">
         <v>2028106</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
+      <c r="D16" s="10">
+        <v>4</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -891,15 +921,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>1761</v>
       </c>
       <c r="C17" s="5">
         <v>2028106</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>10</v>
+      <c r="D17" s="10">
+        <v>5</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -917,15 +950,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
         <v>4024</v>
       </c>
       <c r="C18" s="1">
         <v>2009526</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
+      <c r="D18" s="10">
+        <v>5</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -943,15 +979,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
         <v>4024</v>
       </c>
       <c r="C19" s="1">
         <v>2009526</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
+      <c r="D19" s="10">
+        <v>6</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -969,15 +1008,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20">
         <v>74</v>
       </c>
       <c r="C20" s="1">
         <v>2100350</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>10</v>
+      <c r="D20" s="10">
+        <v>5</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -995,15 +1037,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21">
         <v>1005</v>
       </c>
       <c r="C21" s="5">
         <v>2156905</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
+      <c r="D21" s="10">
+        <v>4</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1021,15 +1066,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22">
         <v>1005</v>
       </c>
       <c r="C22" s="5">
         <v>2156905</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>10</v>
+      <c r="D22" s="10">
+        <v>5</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1047,15 +1095,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23">
         <v>1005</v>
       </c>
       <c r="C23" s="5">
         <v>2156905</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
+      <c r="D23" s="10">
+        <v>6</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1073,15 +1124,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24">
         <v>1696</v>
       </c>
       <c r="C24" s="1">
         <v>2013669</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>10</v>
+      <c r="D24" s="10">
+        <v>5</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1099,15 +1153,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25">
         <v>1696</v>
       </c>
       <c r="C25" s="1">
         <v>2013669</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
+      <c r="D25" s="10">
+        <v>6</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1125,15 +1182,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26">
         <v>1711</v>
       </c>
       <c r="C26" s="1">
         <v>2014629</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>10</v>
+      <c r="D26" s="10">
+        <v>5</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1151,15 +1211,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27">
         <v>1711</v>
       </c>
       <c r="C27" s="1">
         <v>2014629</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>11</v>
+      <c r="D27" s="10">
+        <v>6</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1177,15 +1240,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28">
         <v>1986</v>
       </c>
       <c r="C28" s="1">
         <v>2132285</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>10</v>
+      <c r="D28" s="10">
+        <v>5</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1203,15 +1269,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29">
         <v>1986</v>
       </c>
       <c r="C29" s="1">
         <v>2132285</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>11</v>
+      <c r="D29" s="10">
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1229,15 +1298,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30">
         <v>1843</v>
       </c>
       <c r="C30" s="1">
         <v>2077313</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
+      <c r="D30" s="10">
+        <v>5</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1255,15 +1327,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31">
         <v>1679</v>
       </c>
       <c r="C31" s="1">
         <v>2010199</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
+      <c r="D31" s="10">
+        <v>5</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1281,15 +1356,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32">
         <v>1872</v>
       </c>
       <c r="C32" s="1">
         <v>2085896</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
+      <c r="D32" s="10">
+        <v>5</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1307,15 +1385,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33">
         <v>3685</v>
       </c>
       <c r="C33" s="1">
         <v>2420389</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
+      <c r="D33" s="10">
+        <v>3</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1333,15 +1414,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34">
         <v>741</v>
       </c>
       <c r="C34" s="1">
         <v>2824636</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
+      <c r="D34" s="10">
+        <v>3</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1359,15 +1443,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35">
         <v>3598</v>
       </c>
       <c r="C35" s="1">
         <v>2808720</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
+      <c r="D35" s="10">
+        <v>3</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1385,15 +1472,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36">
         <v>3581</v>
       </c>
       <c r="C36" s="1">
         <v>2690272</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
+      <c r="D36" s="10">
+        <v>3</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1411,15 +1501,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37">
         <v>2876</v>
       </c>
       <c r="C37" s="1">
         <v>2859590</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
+      <c r="D37" s="10">
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1437,15 +1530,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38">
         <v>3589</v>
       </c>
       <c r="C38" s="1">
         <v>2729855</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>13</v>
+      <c r="D38" s="10">
+        <v>3</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1463,15 +1559,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39">
         <v>1753</v>
       </c>
       <c r="C39" s="1">
         <v>2021360</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
+      <c r="D39" s="10">
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1489,15 +1588,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40">
         <v>1681</v>
       </c>
       <c r="C40" s="1">
         <v>2010467</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>10</v>
+      <c r="D40" s="10">
+        <v>5</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1515,15 +1617,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41">
         <v>1717</v>
       </c>
       <c r="C41" s="1">
         <v>2015112</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>10</v>
+      <c r="D41" s="10">
+        <v>5</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1541,15 +1646,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42">
         <v>1715</v>
       </c>
       <c r="C42" s="1">
         <v>2014888</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
+      <c r="D42" s="10">
+        <v>4</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1567,15 +1675,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43">
         <v>4005</v>
       </c>
       <c r="C43" s="1">
         <v>2009189</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
+      <c r="D43" s="10">
+        <v>4</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1593,15 +1704,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44">
         <v>4010</v>
       </c>
       <c r="C44" s="1">
         <v>2009206</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>10</v>
+      <c r="D44" s="10">
+        <v>5</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1619,15 +1733,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45">
         <v>3770</v>
       </c>
       <c r="C45" s="1">
         <v>2049426</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>13</v>
+      <c r="D45" s="10">
+        <v>3</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1645,15 +1762,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46">
         <v>866</v>
       </c>
       <c r="C46" s="1">
         <v>2026646</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>12</v>
+      <c r="D46" s="10">
+        <v>4</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1671,15 +1791,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47">
         <v>6560</v>
       </c>
       <c r="C47" s="1">
         <v>2023658</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
+      <c r="D47" s="10">
+        <v>4</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1697,15 +1820,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48">
         <v>6560</v>
       </c>
       <c r="C48" s="1">
         <v>2023658</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>13</v>
+      <c r="D48" s="10">
+        <v>3</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1723,15 +1849,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49">
         <v>1682</v>
       </c>
       <c r="C49" s="1">
         <v>2010471</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>10</v>
+      <c r="D49" s="10">
+        <v>5</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1749,15 +1878,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50">
         <v>1682</v>
       </c>
       <c r="C50" s="1">
         <v>2010471</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
+      <c r="D50" s="10">
+        <v>4</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1775,15 +1907,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51">
         <v>3996</v>
       </c>
       <c r="C51" s="1">
         <v>2009159</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
+      <c r="D51" s="10">
+        <v>4</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1801,15 +1936,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52">
         <v>3996</v>
       </c>
       <c r="C52" s="1">
         <v>2009159</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>10</v>
+      <c r="D52" s="10">
+        <v>5</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1827,15 +1965,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53">
         <v>4064</v>
       </c>
       <c r="C53" s="1">
         <v>2010508</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
+      <c r="D53" s="10">
+        <v>4</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1853,15 +1994,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54">
         <v>6046</v>
       </c>
       <c r="C54" s="1">
         <v>2027182</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
+      <c r="D54" s="10">
+        <v>4</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1879,15 +2023,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55">
         <v>6046</v>
       </c>
       <c r="C55" s="1">
         <v>2027182</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>13</v>
+      <c r="D55" s="10">
+        <v>3</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1905,15 +2052,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" s="1">
         <v>2024031</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
+      <c r="D56" s="10">
+        <v>4</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1931,15 +2081,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57">
         <v>1674</v>
       </c>
       <c r="C57" s="1">
         <v>2010163</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>10</v>
+      <c r="D57" s="10">
+        <v>5</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1957,15 +2110,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58">
         <v>1879</v>
       </c>
       <c r="C58" s="1">
         <v>2089761</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>10</v>
+      <c r="D58" s="10">
+        <v>5</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1983,15 +2139,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59">
         <v>1758</v>
       </c>
       <c r="C59" s="1">
         <v>2026241</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>12</v>
+      <c r="D59" s="10">
+        <v>4</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2009,15 +2168,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60">
         <v>1758</v>
       </c>
       <c r="C60" s="1">
         <v>2026241</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>10</v>
+      <c r="D60" s="10">
+        <v>5</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2035,15 +2197,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61">
         <v>4359</v>
       </c>
       <c r="C61" s="1">
         <v>2079775</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>10</v>
+      <c r="D61" s="10">
+        <v>5</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2061,15 +2226,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62">
         <v>1887</v>
       </c>
       <c r="C62" s="1">
         <v>2091798</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>12</v>
+      <c r="D62" s="10">
+        <v>4</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2087,15 +2255,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63">
         <v>3764</v>
       </c>
       <c r="C63" s="1">
         <v>2035290</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
+      <c r="D63" s="10">
+        <v>4</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2113,15 +2284,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64">
         <v>874</v>
       </c>
       <c r="C64" s="1">
         <v>2080448</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>12</v>
+      <c r="D64" s="10">
+        <v>4</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2139,15 +2313,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65">
         <v>874</v>
       </c>
       <c r="C65" s="1">
         <v>2080448</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>13</v>
+      <c r="D65" s="10">
+        <v>3</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2165,15 +2342,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66">
         <v>371</v>
       </c>
       <c r="C66" s="1">
         <v>2125700</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>13</v>
+      <c r="D66" s="10">
+        <v>3</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2191,15 +2371,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67">
         <v>371</v>
       </c>
       <c r="C67" s="1">
         <v>2125700</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
+      <c r="D67" s="10">
+        <v>4</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2217,15 +2400,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68">
         <v>7009</v>
       </c>
       <c r="C68" s="1">
         <v>2507826</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>13</v>
+      <c r="D68" s="10">
+        <v>3</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2243,15 +2429,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69">
         <v>4324</v>
       </c>
       <c r="C69" s="1">
         <v>2064181</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>12</v>
+      <c r="D69" s="10">
+        <v>4</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2269,15 +2458,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70">
         <v>5935</v>
       </c>
       <c r="C70" s="1">
         <v>2098143</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>13</v>
+      <c r="D70" s="10">
+        <v>3</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2295,15 +2487,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71">
         <v>1805</v>
       </c>
       <c r="C71" s="1">
         <v>2057452</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>10</v>
+      <c r="D71" s="10">
+        <v>5</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2321,15 +2516,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72">
         <v>1669</v>
       </c>
       <c r="C72" s="1">
         <v>2009811</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>10</v>
+      <c r="D72" s="10">
+        <v>5</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2347,15 +2545,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73">
         <v>2213</v>
       </c>
       <c r="C73" s="1">
         <v>2280744</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>12</v>
+      <c r="D73" s="10">
+        <v>4</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2373,15 +2574,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74">
         <v>3654</v>
       </c>
       <c r="C74" s="1">
         <v>2163988</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>12</v>
+      <c r="D74" s="10">
+        <v>4</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2399,15 +2603,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75">
         <v>6997</v>
       </c>
       <c r="C75" s="1">
         <v>2359990</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>13</v>
+      <c r="D75" s="10">
+        <v>3</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2425,15 +2632,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76">
         <v>1967</v>
       </c>
       <c r="C76" s="1">
         <v>2124251</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>13</v>
+      <c r="D76" s="10">
+        <v>3</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2451,15 +2661,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77">
         <v>4137</v>
       </c>
       <c r="C77" s="1">
         <v>2022472</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>12</v>
+      <c r="D77" s="10">
+        <v>4</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2477,15 +2690,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="B78">
         <v>1182</v>
       </c>
       <c r="C78" s="1">
         <v>2052875</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>12</v>
+      <c r="D78" s="10">
+        <v>4</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2503,15 +2719,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79">
         <v>4125</v>
       </c>
       <c r="C79" s="5">
         <v>2021160</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>12</v>
+      <c r="D79" s="10">
+        <v>4</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2529,15 +2748,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80">
         <v>4125</v>
       </c>
       <c r="C80" s="1">
         <v>2021160</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>12</v>
+      <c r="D80" s="10">
+        <v>4</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -2555,15 +2777,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81">
         <v>4812</v>
       </c>
       <c r="C81" s="1">
         <v>2426735</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>13</v>
+      <c r="D81" s="10">
+        <v>3</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2581,15 +2806,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82">
         <v>4800</v>
       </c>
       <c r="C82" s="1">
         <v>2420922</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>12</v>
+      <c r="D82" s="10">
+        <v>4</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -2607,15 +2835,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83">
         <v>1877</v>
       </c>
       <c r="C83" s="1">
         <v>2089145</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>13</v>
+      <c r="D83" s="10">
+        <v>3</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2633,15 +2864,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84">
         <v>4455</v>
       </c>
       <c r="C84" s="1">
         <v>2149526</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>12</v>
+      <c r="D84" s="10">
+        <v>4</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2659,15 +2893,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85">
         <v>4455</v>
       </c>
       <c r="C85" s="1">
         <v>2149526</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>13</v>
+      <c r="D85" s="10">
+        <v>3</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -2685,15 +2922,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86">
         <v>4093</v>
       </c>
       <c r="C86" s="1">
         <v>2017755</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>12</v>
+      <c r="D86" s="10">
+        <v>4</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -2711,15 +2951,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87">
         <v>6264</v>
       </c>
       <c r="C87" s="1">
         <v>2176797</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>13</v>
+      <c r="D87" s="10">
+        <v>3</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2737,15 +2980,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88">
         <v>6302</v>
       </c>
       <c r="C88" s="1">
         <v>2455182</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>13</v>
+      <c r="D88" s="10">
+        <v>3</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -2763,15 +3009,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89">
         <v>886</v>
       </c>
       <c r="C89" s="1">
         <v>2135604</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>13</v>
+      <c r="D89" s="10">
+        <v>3</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2789,15 +3038,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90">
         <v>4135</v>
       </c>
       <c r="C90" s="1">
         <v>2022468</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>12</v>
+      <c r="D90" s="10">
+        <v>4</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2815,15 +3067,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91">
         <v>6089</v>
       </c>
       <c r="C91" s="1">
         <v>2034552</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>12</v>
+      <c r="D91" s="10">
+        <v>4</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2841,15 +3096,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92">
         <v>64</v>
       </c>
       <c r="C92" s="1">
         <v>2013562</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>13</v>
+      <c r="D92" s="10">
+        <v>3</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2867,15 +3125,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93">
         <v>4748</v>
       </c>
       <c r="C93" s="1">
         <v>2387621</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>12</v>
+      <c r="D93" s="10">
+        <v>4</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2893,15 +3154,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94">
         <v>869</v>
       </c>
       <c r="C94" s="1">
         <v>2031537</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>12</v>
+      <c r="D94" s="10">
+        <v>4</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2919,15 +3183,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95">
         <v>869</v>
       </c>
       <c r="C95" s="1">
         <v>2031537</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>13</v>
+      <c r="D95" s="10">
+        <v>3</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2945,15 +3212,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96">
         <v>1923</v>
       </c>
       <c r="C96" s="1">
         <v>2109482</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>12</v>
+      <c r="D96" s="10">
+        <v>4</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -2971,15 +3241,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97">
         <v>879</v>
       </c>
       <c r="C97" s="1">
         <v>2090935</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>12</v>
+      <c r="D97" s="10">
+        <v>4</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2997,15 +3270,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98">
         <v>879</v>
       </c>
       <c r="C98" s="1">
         <v>2090935</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>10</v>
+      <c r="D98" s="10">
+        <v>5</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3023,15 +3299,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99">
         <v>1896</v>
       </c>
       <c r="C99" s="1">
         <v>2095321</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>12</v>
+      <c r="D99" s="10">
+        <v>4</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3049,15 +3328,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100">
         <v>4062</v>
       </c>
       <c r="C100" s="1">
         <v>2010443</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>12</v>
+      <c r="D100" s="10">
+        <v>4</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3075,15 +3357,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101">
         <v>4062</v>
       </c>
       <c r="C101" s="1">
         <v>2010443</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>10</v>
+      <c r="D101" s="10">
+        <v>5</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3101,15 +3386,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102">
         <v>1174</v>
       </c>
       <c r="C102" s="1">
         <v>2009473</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>12</v>
+      <c r="D102" s="10">
+        <v>4</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3127,15 +3415,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103">
         <v>1174</v>
       </c>
       <c r="C103" s="1">
         <v>2009473</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>10</v>
+      <c r="D103" s="10">
+        <v>5</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3153,15 +3444,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104">
         <v>1700</v>
       </c>
       <c r="C104" s="1">
         <v>2014139</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>10</v>
+      <c r="D104" s="10">
+        <v>5</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3179,15 +3473,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105">
         <v>3757</v>
       </c>
       <c r="C105" s="1">
         <v>2018999</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
+      <c r="D105" s="10">
+        <v>4</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3205,15 +3502,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106">
         <v>870</v>
       </c>
       <c r="C106" s="1">
         <v>2052337</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>12</v>
+      <c r="D106" s="10">
+        <v>4</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3231,15 +3531,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107">
         <v>870</v>
       </c>
       <c r="C107" s="1">
         <v>2052337</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>10</v>
+      <c r="D107" s="10">
+        <v>5</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3257,15 +3560,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108">
         <v>4556</v>
       </c>
       <c r="C108" s="1">
         <v>2215242</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>12</v>
+      <c r="D108" s="10">
+        <v>4</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3283,15 +3589,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109">
         <v>7199</v>
       </c>
       <c r="C109" s="1">
         <v>2203398</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>13</v>
+      <c r="D109" s="10">
+        <v>3</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3309,15 +3618,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110">
         <v>1955</v>
       </c>
       <c r="C110" s="1">
         <v>2119821</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>12</v>
+      <c r="D110" s="10">
+        <v>4</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3335,15 +3647,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111">
         <v>868</v>
       </c>
       <c r="C111" s="1">
         <v>2030053</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>12</v>
+      <c r="D111" s="10">
+        <v>4</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3361,15 +3676,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="B112">
         <v>868</v>
       </c>
       <c r="C112" s="1">
         <v>2030053</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>10</v>
+      <c r="D112" s="10">
+        <v>5</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3387,15 +3705,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="B113">
         <v>3801</v>
       </c>
       <c r="C113" s="1">
         <v>2193281</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>13</v>
+      <c r="D113" s="10">
+        <v>3</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3413,15 +3734,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="B114">
         <v>4841</v>
       </c>
       <c r="C114" s="1">
         <v>2445748</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>12</v>
+      <c r="D114" s="10">
+        <v>4</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3439,15 +3763,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="B115">
         <v>6253</v>
       </c>
       <c r="C115" s="1">
         <v>2134575</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>12</v>
+      <c r="D115" s="10">
+        <v>4</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -3465,15 +3792,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="B116">
         <v>802</v>
       </c>
       <c r="C116" s="1">
         <v>2079004</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>12</v>
+      <c r="D116" s="10">
+        <v>4</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -3491,15 +3821,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="B117">
         <v>799</v>
       </c>
       <c r="C117" s="1">
         <v>2069097</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>12</v>
+      <c r="D117" s="10">
+        <v>4</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3517,15 +3850,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="B118">
         <v>1204</v>
       </c>
       <c r="C118" s="1">
         <v>2166544</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>12</v>
+      <c r="D118" s="10">
+        <v>4</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -3543,15 +3879,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
       <c r="B119">
         <v>1204</v>
       </c>
       <c r="C119" s="1">
         <v>2166544</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>10</v>
+      <c r="D119" s="10">
+        <v>5</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3569,15 +3908,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="B120">
         <v>1187</v>
       </c>
       <c r="C120" s="1">
         <v>2071151</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>10</v>
+      <c r="D120" s="10">
+        <v>5</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3595,15 +3937,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="B121">
         <v>1187</v>
       </c>
       <c r="C121" s="1">
         <v>2071151</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>12</v>
+      <c r="D121" s="10">
+        <v>4</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -3621,15 +3966,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
       <c r="B122">
         <v>4534</v>
       </c>
       <c r="C122" s="1">
         <v>2208992</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>12</v>
+      <c r="D122" s="10">
+        <v>4</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -3647,15 +3995,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="B123">
         <v>2177</v>
       </c>
       <c r="C123" s="1">
         <v>2244328</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>12</v>
+      <c r="D123" s="10">
+        <v>4</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3673,15 +4024,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
       <c r="B124">
         <v>824</v>
       </c>
       <c r="C124" s="1">
         <v>2201359</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>12</v>
+      <c r="D124" s="10">
+        <v>4</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3699,15 +4053,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
       <c r="B125">
         <v>7311</v>
       </c>
       <c r="C125" s="1">
         <v>2100151</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>12</v>
+      <c r="D125" s="10">
+        <v>4</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3725,15 +4082,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="B126">
         <v>15</v>
       </c>
       <c r="C126" s="1">
         <v>2156718</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>13</v>
+      <c r="D126" s="10">
+        <v>3</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3751,15 +4111,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
       <c r="B127">
         <v>880</v>
       </c>
       <c r="C127" s="1">
         <v>2091569</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>13</v>
+      <c r="D127" s="10">
+        <v>3</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -3777,15 +4140,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
       <c r="B128">
         <v>1477</v>
       </c>
       <c r="C128" s="1">
         <v>2536007</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>13</v>
+      <c r="D128" s="10">
+        <v>3</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -3803,15 +4169,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
       <c r="B129">
         <v>1470</v>
       </c>
       <c r="C129" s="1">
         <v>2498363</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>13</v>
+      <c r="D129" s="10">
+        <v>3</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -3829,15 +4198,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
       <c r="B130">
         <v>2970</v>
       </c>
       <c r="C130" s="1">
         <v>2927728</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>13</v>
+      <c r="D130" s="10">
+        <v>3</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3855,15 +4227,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
       <c r="B131">
         <v>2970</v>
       </c>
       <c r="C131" s="1">
         <v>2927728</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>12</v>
+      <c r="D131" s="10">
+        <v>4</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -3881,15 +4256,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
       <c r="B132">
         <v>2131</v>
       </c>
       <c r="C132" s="1">
         <v>2213568</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>13</v>
+      <c r="D132" s="10">
+        <v>3</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -3907,15 +4285,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
       <c r="B133">
         <v>2131</v>
       </c>
       <c r="C133" s="1">
         <v>2213568</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>12</v>
+      <c r="D133" s="10">
+        <v>4</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -3933,15 +4314,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
       <c r="B134">
         <v>1006</v>
       </c>
       <c r="C134" s="1">
         <v>2168747</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>12</v>
+      <c r="D134" s="10">
+        <v>4</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3959,15 +4343,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
       <c r="B135">
         <v>5947</v>
       </c>
       <c r="C135" s="1">
         <v>2334886</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>12</v>
+      <c r="D135" s="10">
+        <v>4</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -3985,15 +4372,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
       <c r="B136">
         <v>6746</v>
       </c>
       <c r="C136" s="1">
         <v>2236009</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>12</v>
+      <c r="D136" s="10">
+        <v>4</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -4011,15 +4401,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
       <c r="B137">
         <v>3657</v>
       </c>
       <c r="C137" s="1">
         <v>2176220</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>13</v>
+      <c r="D137" s="10">
+        <v>3</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -4037,15 +4430,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
       <c r="B138">
         <v>7361</v>
       </c>
       <c r="C138" s="1">
         <v>2411166</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>13</v>
+      <c r="D138" s="10">
+        <v>3</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -4063,15 +4459,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
       <c r="B139">
         <v>7361</v>
       </c>
       <c r="C139" s="1">
         <v>2411166</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>12</v>
+      <c r="D139" s="10">
+        <v>4</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -4089,15 +4488,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
       <c r="B140">
         <v>7369</v>
       </c>
       <c r="C140" s="1">
         <v>2493790</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>13</v>
+      <c r="D140" s="10">
+        <v>3</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -4115,15 +4517,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
       <c r="B141">
         <v>1094</v>
       </c>
       <c r="C141" s="1">
         <v>2509412</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>13</v>
+      <c r="D141" s="10">
+        <v>3</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -4141,15 +4546,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
       <c r="B142">
         <v>7075</v>
       </c>
       <c r="C142" s="1">
         <v>2334307</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>13</v>
+      <c r="D142" s="10">
+        <v>3</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -4167,15 +4575,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
       <c r="B143">
         <v>804</v>
       </c>
       <c r="C143" s="1">
         <v>2110278</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>12</v>
+      <c r="D143" s="10">
+        <v>4</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -4193,15 +4604,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
       <c r="B144">
         <v>6644</v>
       </c>
       <c r="C144" s="1">
         <v>2328779</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>12</v>
+      <c r="D144" s="10">
+        <v>4</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -4219,15 +4633,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
       <c r="B145">
         <v>7076</v>
       </c>
       <c r="C145" s="1">
         <v>2338323</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>13</v>
+      <c r="D145" s="10">
+        <v>3</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4245,15 +4662,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
       <c r="B146">
         <v>181</v>
       </c>
       <c r="C146" s="1">
         <v>2150365</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>13</v>
+      <c r="D146" s="10">
+        <v>3</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -4271,15 +4691,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
       <c r="B147">
         <v>1001</v>
       </c>
       <c r="C147" s="1">
         <v>2119251</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>12</v>
+      <c r="D147" s="10">
+        <v>4</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -4297,15 +4720,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
       <c r="B148">
         <v>1032</v>
       </c>
       <c r="C148" s="1">
         <v>2352573</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>12</v>
+      <c r="D148" s="10">
+        <v>4</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -4323,15 +4749,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
       <c r="B149">
         <v>6634</v>
       </c>
       <c r="C149" s="1">
         <v>2179159</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>12</v>
+      <c r="D149" s="10">
+        <v>4</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -4349,15 +4778,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
       <c r="B150">
         <v>1990</v>
       </c>
       <c r="C150" s="1">
         <v>2134168</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>13</v>
+      <c r="D150" s="10">
+        <v>3</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -4375,15 +4807,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
       <c r="B151">
         <v>1990</v>
       </c>
       <c r="C151" s="1">
         <v>2134168</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>12</v>
+      <c r="D151" s="10">
+        <v>4</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -4401,15 +4836,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
       <c r="B152">
         <v>4611</v>
       </c>
       <c r="C152" s="1">
         <v>2274671</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>12</v>
+      <c r="D152" s="10">
+        <v>4</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -4427,15 +4865,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
       <c r="B153">
         <v>4566</v>
       </c>
       <c r="C153" s="1">
         <v>2224873</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>12</v>
+      <c r="D153" s="10">
+        <v>4</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -4453,15 +4894,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
       <c r="B154">
         <v>7069</v>
       </c>
       <c r="C154" s="1">
         <v>2235117</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>13</v>
+      <c r="D154" s="10">
+        <v>3</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -4479,15 +4923,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
       <c r="B155">
         <v>4517</v>
       </c>
       <c r="C155" s="1">
         <v>2203396</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>12</v>
+      <c r="D155" s="10">
+        <v>4</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -4505,15 +4952,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
       <c r="B156">
         <v>4536</v>
       </c>
       <c r="C156" s="1">
         <v>2209207</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>12</v>
+      <c r="D156" s="10">
+        <v>4</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4531,15 +4981,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
       <c r="B157">
         <v>4773</v>
       </c>
       <c r="C157" s="1">
         <v>2406125</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>12</v>
+      <c r="D157" s="10">
+        <v>4</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -4557,15 +5010,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
       <c r="B158">
         <v>5226</v>
       </c>
       <c r="C158" s="1">
         <v>2727983</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>13</v>
+      <c r="D158" s="10">
+        <v>3</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4583,15 +5039,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
       <c r="B159">
         <v>7000</v>
       </c>
       <c r="C159" s="1">
         <v>2376146</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>13</v>
+      <c r="D159" s="10">
+        <v>3</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4609,15 +5068,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
       <c r="B160">
         <v>6640</v>
       </c>
       <c r="C160" s="1">
         <v>2209120</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>12</v>
+      <c r="D160" s="10">
+        <v>4</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -4635,15 +5097,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
       <c r="B161">
         <v>6630</v>
       </c>
       <c r="C161" s="1">
         <v>2119597</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>12</v>
+      <c r="D161" s="10">
+        <v>4</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -4661,15 +5126,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
       <c r="B162">
         <v>877</v>
       </c>
       <c r="C162" s="1">
         <v>2086999</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>12</v>
+      <c r="D162" s="10">
+        <v>4</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -4687,15 +5155,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
       <c r="B163">
         <v>919</v>
       </c>
       <c r="C163" s="1">
         <v>2291371</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>13</v>
+      <c r="D163" s="10">
+        <v>3</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -4713,15 +5184,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
       <c r="B164">
         <v>6271</v>
       </c>
       <c r="C164" s="1">
         <v>2223706</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>13</v>
+      <c r="D164" s="10">
+        <v>3</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -4739,15 +5213,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
       <c r="B165">
         <v>6388</v>
       </c>
       <c r="C165" s="1">
         <v>2934243</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>13</v>
+      <c r="D165" s="10">
+        <v>3</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -4765,15 +5242,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
       <c r="B166">
         <v>6321</v>
       </c>
       <c r="C166" s="1">
         <v>2638192</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>12</v>
+      <c r="D166" s="10">
+        <v>4</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -4791,15 +5271,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
       <c r="B167">
         <v>6325</v>
       </c>
       <c r="C167" s="1">
         <v>2650551</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>12</v>
+      <c r="D167" s="10">
+        <v>4</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4817,15 +5300,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
       <c r="B168">
         <v>905</v>
       </c>
       <c r="C168" s="1">
         <v>2219667</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>13</v>
+      <c r="D168" s="10">
+        <v>3</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -4843,15 +5329,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
       <c r="B169">
         <v>3559</v>
       </c>
       <c r="C169" s="1">
         <v>2473312</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>13</v>
+      <c r="D169" s="10">
+        <v>3</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -4869,15 +5358,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
       <c r="B170">
         <v>3552</v>
       </c>
       <c r="C170" s="1">
         <v>2372888</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>13</v>
+      <c r="D170" s="10">
+        <v>3</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -4895,15 +5387,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
       <c r="B171">
         <v>3557</v>
       </c>
       <c r="C171" s="1">
         <v>2473084</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>13</v>
+      <c r="D171" s="10">
+        <v>3</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -4921,15 +5416,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
       <c r="B172">
         <v>1491</v>
       </c>
       <c r="C172" s="1">
         <v>2701558</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>13</v>
+      <c r="D172" s="10">
+        <v>3</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -4947,15 +5445,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
       <c r="B173">
         <v>7</v>
       </c>
       <c r="C173" s="1">
         <v>2088516</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>13</v>
+      <c r="D173" s="10">
+        <v>3</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -4973,15 +5474,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
       <c r="B174">
         <v>904</v>
       </c>
       <c r="C174" s="1">
         <v>2215059</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>12</v>
+      <c r="D174" s="10">
+        <v>4</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -4999,15 +5503,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
       <c r="B175">
         <v>914</v>
       </c>
       <c r="C175" s="1">
         <v>2274467</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>12</v>
+      <c r="D175" s="10">
+        <v>4</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -5025,15 +5532,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
       <c r="B176">
         <v>1249</v>
       </c>
       <c r="C176" s="1">
         <v>2374255</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>12</v>
+      <c r="D176" s="10">
+        <v>4</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -5051,15 +5561,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
       <c r="B177">
         <v>1201</v>
       </c>
       <c r="C177" s="1">
         <v>2115178</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>12</v>
+      <c r="D177" s="10">
+        <v>4</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -5077,15 +5590,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
       <c r="B178">
         <v>1472</v>
       </c>
       <c r="C178" s="1">
         <v>2506972</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>13</v>
+      <c r="D178" s="10">
+        <v>3</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -5103,15 +5619,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
       <c r="B179">
         <v>1459</v>
       </c>
       <c r="C179" s="1">
         <v>2422121</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>13</v>
+      <c r="D179" s="10">
+        <v>3</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -5129,15 +5648,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
       <c r="B180">
         <v>4400</v>
       </c>
       <c r="C180" s="1">
         <v>2110443</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>12</v>
+      <c r="D180" s="10">
+        <v>4</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -5155,15 +5677,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
       <c r="B181">
         <v>4465</v>
       </c>
       <c r="C181" s="1">
         <v>2164696</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>12</v>
+      <c r="D181" s="10">
+        <v>4</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -5181,15 +5706,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
       <c r="B182">
         <v>6998</v>
       </c>
       <c r="C182" s="1">
         <v>2361612</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>13</v>
+      <c r="D182" s="10">
+        <v>3</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -5207,15 +5735,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
       <c r="B183">
         <v>2129</v>
       </c>
       <c r="C183" s="1">
         <v>2211630</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>12</v>
+      <c r="D183" s="10">
+        <v>4</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -5233,15 +5764,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
       <c r="B184">
         <v>4538</v>
       </c>
       <c r="C184" s="1">
         <v>2210178</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>12</v>
+      <c r="D184" s="10">
+        <v>4</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -5259,15 +5793,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
       <c r="B185">
         <v>3689</v>
       </c>
       <c r="C185" s="1">
         <v>2445515</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>12</v>
+      <c r="D185" s="10">
+        <v>4</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -5285,15 +5822,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
       <c r="B186">
         <v>2136</v>
       </c>
       <c r="C186" s="1">
         <v>2216120</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>12</v>
+      <c r="D186" s="10">
+        <v>4</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -5311,15 +5851,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
       <c r="B187">
         <v>3689</v>
       </c>
       <c r="C187" s="1">
         <v>2445515</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>13</v>
+      <c r="D187" s="10">
+        <v>3</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -5337,15 +5880,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
       <c r="B188">
         <v>6718</v>
       </c>
       <c r="C188" s="1">
         <v>2482696</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>12</v>
+      <c r="D188" s="10">
+        <v>4</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -5363,15 +5909,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
       <c r="B189">
         <v>6718</v>
       </c>
       <c r="C189" s="1">
         <v>2482696</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>13</v>
+      <c r="D189" s="10">
+        <v>3</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -5389,15 +5938,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
       <c r="B190">
         <v>6695</v>
       </c>
       <c r="C190" s="1">
         <v>2240647</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>12</v>
+      <c r="D190" s="10">
+        <v>4</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -5415,15 +5967,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
       <c r="B191">
         <v>6695</v>
       </c>
       <c r="C191" s="1">
         <v>2240647</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>13</v>
+      <c r="D191" s="10">
+        <v>3</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -5441,15 +5996,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
       <c r="B192">
         <v>6650</v>
       </c>
       <c r="C192" s="1">
         <v>2154706</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>13</v>
+      <c r="D192" s="10">
+        <v>3</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -5467,15 +6025,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
       <c r="B193">
         <v>7139</v>
       </c>
       <c r="C193" s="1">
         <v>2070763</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>13</v>
+      <c r="D193" s="10">
+        <v>3</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -5493,15 +6054,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
       <c r="B194">
         <v>7145</v>
       </c>
       <c r="C194" s="1">
         <v>2180589</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>13</v>
+      <c r="D194" s="10">
+        <v>3</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -5519,15 +6083,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
       <c r="B195">
         <v>7144</v>
       </c>
       <c r="C195" s="1">
         <v>2179208</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>13</v>
+      <c r="D195" s="10">
+        <v>3</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -5545,15 +6112,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
       <c r="B196">
         <v>7150</v>
       </c>
       <c r="C196" s="1">
         <v>2245929</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>13</v>
+      <c r="D196" s="10">
+        <v>3</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -5571,15 +6141,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
       <c r="B197">
         <v>569</v>
       </c>
       <c r="C197" s="1">
         <v>2390101</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>13</v>
+      <c r="D197" s="10">
+        <v>3</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -5597,15 +6170,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
       <c r="B198">
         <v>4967</v>
       </c>
       <c r="C198" s="1">
         <v>2559076</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>13</v>
+      <c r="D198" s="10">
+        <v>3</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -5623,15 +6199,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
       <c r="B199">
         <v>5030</v>
       </c>
       <c r="C199" s="1">
         <v>2597171</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>13</v>
+      <c r="D199" s="10">
+        <v>3</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -5649,15 +6228,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
       <c r="B200">
         <v>5030</v>
       </c>
       <c r="C200" s="1">
         <v>2597171</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>12</v>
+      <c r="D200" s="10">
+        <v>4</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -5675,15 +6257,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
       <c r="B201">
         <v>5015</v>
       </c>
       <c r="C201" s="1">
         <v>2592024</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>13</v>
+      <c r="D201" s="10">
+        <v>3</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -5701,15 +6286,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
       <c r="B202">
         <v>5015</v>
       </c>
       <c r="C202" s="1">
         <v>2592024</v>
       </c>
-      <c r="D202" s="2" t="s">
-        <v>12</v>
+      <c r="D202" s="10">
+        <v>4</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -5727,15 +6315,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
       <c r="B203">
         <v>5026</v>
       </c>
       <c r="C203" s="1">
         <v>2597163</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>13</v>
+      <c r="D203" s="10">
+        <v>3</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -5753,15 +6344,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
       <c r="B204">
         <v>555</v>
       </c>
       <c r="C204" s="1">
         <v>2205067</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>13</v>
+      <c r="D204" s="10">
+        <v>3</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -5779,15 +6373,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
       <c r="B205">
         <v>4856</v>
       </c>
       <c r="C205" s="1">
         <v>2458683</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>13</v>
+      <c r="D205" s="10">
+        <v>3</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -5805,15 +6402,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
       <c r="B206">
         <v>386</v>
       </c>
       <c r="C206" s="1">
         <v>2355809</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>13</v>
+      <c r="D206" s="10">
+        <v>3</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -5831,15 +6431,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
       <c r="B207">
         <v>6047</v>
       </c>
       <c r="C207" s="1">
         <v>2030461</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>12</v>
+      <c r="D207" s="10">
+        <v>4</v>
       </c>
       <c r="E207">
         <v>1</v>
@@ -5857,15 +6460,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
       <c r="B208">
         <v>6047</v>
       </c>
       <c r="C208" s="1">
         <v>2030461</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>13</v>
+      <c r="D208" s="10">
+        <v>3</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -5883,15 +6489,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
       <c r="B209">
         <v>2009</v>
       </c>
       <c r="C209" s="1">
         <v>2141829</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>12</v>
+      <c r="D209" s="10">
+        <v>4</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -5909,15 +6518,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
       <c r="B210">
         <v>1014</v>
       </c>
       <c r="C210" s="1">
         <v>2245353</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>12</v>
+      <c r="D210" s="10">
+        <v>4</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -5935,15 +6547,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
       <c r="B211">
         <v>1014</v>
       </c>
       <c r="C211" s="1">
         <v>2245353</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>13</v>
+      <c r="D211" s="10">
+        <v>3</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -5961,15 +6576,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
       <c r="B212">
         <v>3811</v>
       </c>
       <c r="C212" s="1">
         <v>2257521</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>13</v>
+      <c r="D212" s="10">
+        <v>3</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -5987,15 +6605,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
       <c r="B213">
         <v>3811</v>
       </c>
       <c r="C213" s="1">
         <v>2257521</v>
       </c>
-      <c r="D213" s="2" t="s">
-        <v>12</v>
+      <c r="D213" s="10">
+        <v>4</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -6013,15 +6634,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
       <c r="B214">
         <v>402</v>
       </c>
       <c r="C214" s="1">
         <v>2502874</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>13</v>
+      <c r="D214" s="10">
+        <v>3</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -6039,15 +6663,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
       <c r="B215">
         <v>3793</v>
       </c>
       <c r="C215" s="1">
         <v>2134864</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>12</v>
+      <c r="D215" s="10">
+        <v>4</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -6065,15 +6692,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
       <c r="B216">
         <v>3812</v>
       </c>
       <c r="C216" s="1">
         <v>2257701</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>12</v>
+      <c r="D216" s="10">
+        <v>4</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -6091,15 +6721,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
       <c r="B217">
         <v>4454</v>
       </c>
       <c r="C217" s="1">
         <v>2149171</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>12</v>
+      <c r="D217" s="10">
+        <v>4</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -6117,15 +6750,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
       <c r="B218">
         <v>4799</v>
       </c>
       <c r="C218" s="1">
         <v>2420908</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>12</v>
+      <c r="D218" s="10">
+        <v>4</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -6143,15 +6779,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
       <c r="B219">
         <v>3659</v>
       </c>
       <c r="C219" s="1">
         <v>2192239</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>13</v>
+      <c r="D219" s="10">
+        <v>3</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -6169,15 +6808,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
       <c r="B220">
         <v>4811</v>
       </c>
       <c r="C220" s="1">
         <v>2424563</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>12</v>
+      <c r="D220" s="10">
+        <v>4</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -6195,15 +6837,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
       <c r="B221">
         <v>4541</v>
       </c>
       <c r="C221" s="1">
         <v>2210445</v>
       </c>
-      <c r="D221" s="2" t="s">
-        <v>12</v>
+      <c r="D221" s="10">
+        <v>4</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -6221,15 +6866,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
       <c r="B222">
         <v>1238</v>
       </c>
       <c r="C222" s="1">
         <v>2341123</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>12</v>
+      <c r="D222" s="10">
+        <v>4</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -6247,15 +6895,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
       <c r="B223">
         <v>4533</v>
       </c>
       <c r="C223" s="1">
         <v>2208973</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>12</v>
+      <c r="D223" s="10">
+        <v>4</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -6273,15 +6924,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
       <c r="B224">
         <v>7352</v>
       </c>
       <c r="C224" s="1">
         <v>2203847</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>13</v>
+      <c r="D224" s="10">
+        <v>3</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -6299,15 +6953,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
       <c r="B225">
         <v>594</v>
       </c>
       <c r="C225" s="1">
         <v>2532849</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>12</v>
+      <c r="D225" s="10">
+        <v>4</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -6325,15 +6982,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
       <c r="B226">
         <v>4975</v>
       </c>
       <c r="C226" s="1">
         <v>2566345</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>12</v>
+      <c r="D226" s="10">
+        <v>4</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -6351,15 +7011,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
       <c r="B227">
         <v>5099</v>
       </c>
       <c r="C227" s="1">
         <v>2644466</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>12</v>
+      <c r="D227" s="10">
+        <v>4</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -6377,15 +7040,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
       <c r="B228">
         <v>5009</v>
       </c>
       <c r="C228" s="1">
         <v>2589783</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>12</v>
+      <c r="D228" s="10">
+        <v>4</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -6403,15 +7069,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
       <c r="B229">
         <v>4700</v>
       </c>
       <c r="C229" s="1">
         <v>2342132</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>12</v>
+      <c r="D229" s="10">
+        <v>4</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -6429,15 +7098,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
       <c r="B230">
         <v>4849</v>
       </c>
       <c r="C230" s="1">
         <v>2452239</v>
       </c>
-      <c r="D230" s="2" t="s">
-        <v>12</v>
+      <c r="D230" s="10">
+        <v>4</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -6455,15 +7127,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
       <c r="B231">
         <v>2250</v>
       </c>
       <c r="C231" s="1">
         <v>2327964</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>12</v>
+      <c r="D231" s="10">
+        <v>4</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -6481,15 +7156,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
       <c r="B232">
         <v>2250</v>
       </c>
       <c r="C232" s="1">
         <v>2327964</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>13</v>
+      <c r="D232" s="10">
+        <v>3</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -6507,15 +7185,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
       <c r="B233">
         <v>4616</v>
       </c>
       <c r="C233" s="1">
         <v>2277076</v>
       </c>
-      <c r="D233" s="2" t="s">
-        <v>12</v>
+      <c r="D233" s="10">
+        <v>4</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -6533,15 +7214,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
       <c r="B234">
         <v>2287</v>
       </c>
       <c r="C234" s="1">
         <v>2365513</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>12</v>
+      <c r="D234" s="10">
+        <v>4</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -6559,15 +7243,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
       <c r="B235">
         <v>4779</v>
       </c>
       <c r="C235" s="1">
         <v>2410279</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>12</v>
+      <c r="D235" s="10">
+        <v>4</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -6585,15 +7272,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
       <c r="B236">
         <v>4563</v>
       </c>
       <c r="C236" s="1">
         <v>2222301</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>13</v>
+      <c r="D236" s="10">
+        <v>3</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -6611,15 +7301,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
       <c r="B237">
         <v>4563</v>
       </c>
       <c r="C237" s="1">
         <v>2222301</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>12</v>
+      <c r="D237" s="10">
+        <v>4</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -6637,15 +7330,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
       <c r="B238">
         <v>7003</v>
       </c>
       <c r="C238" s="1">
         <v>2405018</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>13</v>
+      <c r="D238" s="10">
+        <v>3</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -6663,15 +7359,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
       <c r="B239">
         <v>6999</v>
       </c>
       <c r="C239" s="1">
         <v>2361616</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>13</v>
+      <c r="D239" s="10">
+        <v>3</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -6689,15 +7388,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
       <c r="B240">
         <v>2252</v>
       </c>
       <c r="C240" s="1">
         <v>2328176</v>
       </c>
-      <c r="D240" s="2" t="s">
-        <v>10</v>
+      <c r="D240" s="10">
+        <v>5</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -6715,15 +7417,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
       <c r="B241">
         <v>4594</v>
       </c>
       <c r="C241" s="1">
         <v>2256088</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>12</v>
+      <c r="D241" s="10">
+        <v>4</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -6741,15 +7446,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
       <c r="B242">
         <v>6631</v>
       </c>
       <c r="C242" s="1">
         <v>2149334</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>12</v>
+      <c r="D242" s="10">
+        <v>4</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -6767,15 +7475,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
       <c r="B243">
         <v>4353</v>
       </c>
       <c r="C243" s="1">
         <v>2075319</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>13</v>
+      <c r="D243" s="10">
+        <v>3</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -6793,15 +7504,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
       <c r="B244">
         <v>6996</v>
       </c>
       <c r="C244" s="1">
         <v>2336086</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>13</v>
+      <c r="D244" s="10">
+        <v>3</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -6819,15 +7533,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
       <c r="B245">
         <v>6102</v>
       </c>
       <c r="C245" s="1">
         <v>2316648</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>12</v>
+      <c r="D245" s="10">
+        <v>4</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -6845,15 +7562,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
       <c r="B246">
         <v>6923</v>
       </c>
       <c r="C246" s="1">
         <v>2480860</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>12</v>
+      <c r="D246" s="10">
+        <v>4</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -6871,15 +7591,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
       <c r="B247">
         <v>384</v>
       </c>
       <c r="C247" s="1">
         <v>2319007</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>12</v>
+      <c r="D247" s="10">
+        <v>4</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -6897,15 +7620,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
       <c r="B248">
         <v>384</v>
       </c>
       <c r="C248" s="1">
         <v>2319007</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>13</v>
+      <c r="D248" s="10">
+        <v>3</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -6923,15 +7649,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
       <c r="B249">
         <v>3777</v>
       </c>
       <c r="C249" s="1">
         <v>2079092</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>13</v>
+      <c r="D249" s="10">
+        <v>3</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -6949,15 +7678,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
       <c r="B250">
         <v>7348</v>
       </c>
       <c r="C250" s="1">
         <v>2129797</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>12</v>
+      <c r="D250" s="10">
+        <v>4</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -6975,15 +7707,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
       <c r="B251">
         <v>5957</v>
       </c>
       <c r="C251" s="1">
         <v>2456794</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>13</v>
+      <c r="D251" s="10">
+        <v>3</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -7001,15 +7736,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
       <c r="B252">
         <v>883</v>
       </c>
       <c r="C252" s="1">
         <v>2110468</v>
       </c>
-      <c r="D252" s="2" t="s">
-        <v>13</v>
+      <c r="D252" s="10">
+        <v>3</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -7027,15 +7765,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
       <c r="B253">
         <v>738</v>
       </c>
       <c r="C253" s="1">
         <v>2773236</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>13</v>
+      <c r="D253" s="10">
+        <v>3</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -7053,15 +7794,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
       <c r="B254">
         <v>4349</v>
       </c>
       <c r="C254" s="1">
         <v>2073692</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>10</v>
+      <c r="D254" s="10">
+        <v>5</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -7079,15 +7823,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
       <c r="B255">
         <v>4349</v>
       </c>
       <c r="C255" s="1">
         <v>2073692</v>
       </c>
-      <c r="D255" s="2" t="s">
-        <v>12</v>
+      <c r="D255" s="10">
+        <v>4</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -7105,15 +7852,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
       <c r="B256">
         <v>4794</v>
       </c>
       <c r="C256" s="1">
         <v>2420058</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>12</v>
+      <c r="D256" s="10">
+        <v>4</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -7131,15 +7881,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
       <c r="B257">
         <v>4625</v>
       </c>
       <c r="C257" s="1">
         <v>2283633</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>12</v>
+      <c r="D257" s="10">
+        <v>4</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -7157,15 +7910,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
       <c r="B258">
         <v>1097</v>
       </c>
       <c r="C258" s="1">
         <v>2544584</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>13</v>
+      <c r="D258" s="10">
+        <v>3</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -7183,15 +7939,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
       <c r="B259">
         <v>6049</v>
       </c>
       <c r="C259" s="1">
         <v>2080378</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>13</v>
+      <c r="D259" s="10">
+        <v>3</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -7209,15 +7968,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
       <c r="B260">
         <v>4891</v>
       </c>
       <c r="C260" s="1">
         <v>2495359</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>12</v>
+      <c r="D260" s="10">
+        <v>4</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -7235,15 +7997,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
       <c r="B261">
         <v>4777</v>
       </c>
       <c r="C261" s="1">
         <v>2410215</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>12</v>
+      <c r="D261" s="10">
+        <v>4</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -7261,15 +8026,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
       <c r="B262">
         <v>4843</v>
       </c>
       <c r="C262" s="1">
         <v>2449639</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>13</v>
+      <c r="D262" s="10">
+        <v>3</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -7287,15 +8055,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
       <c r="B263">
         <v>4606</v>
       </c>
       <c r="C263" s="1">
         <v>2268648</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>12</v>
+      <c r="D263" s="10">
+        <v>4</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -7313,15 +8084,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
       <c r="B264">
         <v>916</v>
       </c>
       <c r="C264" s="1">
         <v>2277248</v>
       </c>
-      <c r="D264" s="2" t="s">
-        <v>12</v>
+      <c r="D264" s="10">
+        <v>4</v>
       </c>
       <c r="E264">
         <v>1</v>
@@ -7339,15 +8113,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
       <c r="B265">
         <v>915</v>
       </c>
       <c r="C265" s="1">
         <v>2277158</v>
       </c>
-      <c r="D265" s="2" t="s">
-        <v>13</v>
+      <c r="D265" s="10">
+        <v>3</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -7365,15 +8142,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
       <c r="B266">
         <v>915</v>
       </c>
       <c r="C266" s="1">
         <v>2277158</v>
       </c>
-      <c r="D266" s="2" t="s">
-        <v>12</v>
+      <c r="D266" s="10">
+        <v>4</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -7391,15 +8171,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
       <c r="B267">
         <v>1035</v>
       </c>
       <c r="C267" s="1">
         <v>2385004</v>
       </c>
-      <c r="D267" s="2" t="s">
-        <v>12</v>
+      <c r="D267" s="10">
+        <v>4</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -7417,15 +8200,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
       <c r="B268">
         <v>5329</v>
       </c>
       <c r="C268" s="1">
         <v>2784849</v>
       </c>
-      <c r="D268" s="2" t="s">
-        <v>12</v>
+      <c r="D268" s="10">
+        <v>4</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -7443,15 +8229,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
       <c r="B269">
         <v>5170</v>
       </c>
       <c r="C269" s="1">
         <v>2696692</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>12</v>
+      <c r="D269" s="10">
+        <v>4</v>
       </c>
       <c r="E269">
         <v>1</v>
@@ -7469,15 +8258,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
       <c r="B270">
         <v>5288</v>
       </c>
       <c r="C270" s="1">
         <v>2758034</v>
       </c>
-      <c r="D270" s="2" t="s">
-        <v>12</v>
+      <c r="D270" s="10">
+        <v>4</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -7495,15 +8287,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
       <c r="B271">
         <v>1044</v>
       </c>
       <c r="C271" s="1">
         <v>2487889</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>12</v>
+      <c r="D271" s="10">
+        <v>4</v>
       </c>
       <c r="E271">
         <v>1</v>
@@ -7521,15 +8316,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
       <c r="B272">
         <v>835</v>
       </c>
       <c r="C272" s="1">
         <v>2341260</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>12</v>
+      <c r="D272" s="10">
+        <v>4</v>
       </c>
       <c r="E272">
         <v>1</v>
@@ -7547,15 +8345,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
       <c r="B273">
         <v>997</v>
       </c>
       <c r="C273" s="1">
         <v>2078273</v>
       </c>
-      <c r="D273" s="2" t="s">
-        <v>12</v>
+      <c r="D273" s="10">
+        <v>4</v>
       </c>
       <c r="E273">
         <v>1</v>
@@ -7573,15 +8374,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
       <c r="B274">
         <v>6067</v>
       </c>
       <c r="C274" s="1">
         <v>2616219</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>12</v>
+      <c r="D274" s="10">
+        <v>4</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -7599,15 +8403,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
       <c r="B275">
         <v>6067</v>
       </c>
       <c r="C275" s="1">
         <v>2616219</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>13</v>
+      <c r="D275" s="10">
+        <v>3</v>
       </c>
       <c r="E275">
         <v>1</v>
@@ -7625,15 +8432,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
       <c r="B276">
         <v>5114</v>
       </c>
       <c r="C276" s="1">
         <v>2653476</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>13</v>
+      <c r="D276" s="10">
+        <v>3</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -7651,15 +8461,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
       <c r="B277">
         <v>5175</v>
       </c>
       <c r="C277" s="1">
         <v>2702062</v>
       </c>
-      <c r="D277" s="2" t="s">
-        <v>13</v>
+      <c r="D277" s="10">
+        <v>3</v>
       </c>
       <c r="E277">
         <v>1</v>
@@ -7677,15 +8490,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
       <c r="B278">
         <v>5067</v>
       </c>
       <c r="C278" s="1">
         <v>2627756</v>
       </c>
-      <c r="D278" s="2" t="s">
-        <v>13</v>
+      <c r="D278" s="10">
+        <v>3</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -7703,15 +8519,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
       <c r="B279">
         <v>5194</v>
       </c>
       <c r="C279" s="1">
         <v>2710998</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>13</v>
+      <c r="D279" s="10">
+        <v>3</v>
       </c>
       <c r="E279">
         <v>1</v>
@@ -7729,15 +8548,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
       <c r="B280">
         <v>5023</v>
       </c>
       <c r="C280" s="1">
         <v>2596955</v>
       </c>
-      <c r="D280" s="2" t="s">
-        <v>13</v>
+      <c r="D280" s="10">
+        <v>3</v>
       </c>
       <c r="E280">
         <v>1</v>
@@ -7755,15 +8577,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
       <c r="B281">
         <v>5095</v>
       </c>
       <c r="C281" s="1">
         <v>2641282</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>13</v>
+      <c r="D281" s="10">
+        <v>3</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -7781,15 +8606,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
       <c r="B282">
         <v>5222</v>
       </c>
       <c r="C282" s="1">
         <v>2727741</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>13</v>
+      <c r="D282" s="10">
+        <v>3</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -7807,15 +8635,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
       <c r="B283">
         <v>88</v>
       </c>
       <c r="C283" s="1">
         <v>2435646</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>12</v>
+      <c r="D283" s="10">
+        <v>4</v>
       </c>
       <c r="E283">
         <v>1</v>
@@ -7833,15 +8664,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
       <c r="B284">
         <v>6902</v>
       </c>
       <c r="C284" s="1">
         <v>2113728</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>13</v>
+      <c r="D284" s="10">
+        <v>3</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -7859,15 +8693,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
       <c r="B285">
         <v>992</v>
       </c>
       <c r="C285" s="1">
         <v>2009154</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>12</v>
+      <c r="D285" s="10">
+        <v>4</v>
       </c>
       <c r="E285">
         <v>1</v>
@@ -7885,15 +8722,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
       <c r="B286">
         <v>6645</v>
       </c>
       <c r="C286" s="1">
         <v>2352857</v>
       </c>
-      <c r="D286" s="2" t="s">
-        <v>12</v>
+      <c r="D286" s="10">
+        <v>4</v>
       </c>
       <c r="E286">
         <v>1</v>
@@ -7911,15 +8751,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
       <c r="B287">
         <v>6639</v>
       </c>
       <c r="C287" s="1">
         <v>2195562</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>12</v>
+      <c r="D287" s="10">
+        <v>4</v>
       </c>
       <c r="E287">
         <v>1</v>
@@ -7937,15 +8780,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
       <c r="B288">
         <v>1008</v>
       </c>
       <c r="C288" s="1">
         <v>2183626</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>12</v>
+      <c r="D288" s="10">
+        <v>4</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -7963,15 +8809,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
       <c r="B289">
         <v>6615</v>
       </c>
       <c r="C289" s="1">
         <v>2282582</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>13</v>
+      <c r="D289" s="10">
+        <v>3</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -7989,15 +8838,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
       <c r="B290">
         <v>5176</v>
       </c>
       <c r="C290" s="1">
         <v>2702075</v>
       </c>
-      <c r="D290" s="2" t="s">
-        <v>12</v>
+      <c r="D290" s="10">
+        <v>4</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -8015,15 +8867,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
       <c r="B291">
         <v>1012</v>
       </c>
       <c r="C291" s="1">
         <v>2223339</v>
       </c>
-      <c r="D291" s="2" t="s">
-        <v>12</v>
+      <c r="D291" s="10">
+        <v>4</v>
       </c>
       <c r="E291">
         <v>1</v>
@@ -8041,15 +8896,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
       <c r="B292">
         <v>1020</v>
       </c>
       <c r="C292" s="1">
         <v>2300266</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>12</v>
+      <c r="D292" s="10">
+        <v>4</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -8067,15 +8925,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
       <c r="B293">
         <v>1020</v>
       </c>
       <c r="C293" s="1">
         <v>2300266</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>13</v>
+      <c r="D293" s="10">
+        <v>3</v>
       </c>
       <c r="E293">
         <v>1</v>
@@ -8093,15 +8954,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
       <c r="B294">
         <v>4953</v>
       </c>
       <c r="C294" s="1">
         <v>2548899</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>12</v>
+      <c r="D294" s="10">
+        <v>4</v>
       </c>
       <c r="E294">
         <v>1</v>
@@ -8119,15 +8983,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
       <c r="B295">
         <v>4619</v>
       </c>
       <c r="C295" s="1">
         <v>2279272</v>
       </c>
-      <c r="D295" s="2" t="s">
-        <v>12</v>
+      <c r="D295" s="10">
+        <v>4</v>
       </c>
       <c r="E295">
         <v>1</v>
@@ -8145,15 +9012,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
       <c r="B296">
         <v>4784</v>
       </c>
       <c r="C296" s="1">
         <v>2412029</v>
       </c>
-      <c r="D296" s="2" t="s">
-        <v>12</v>
+      <c r="D296" s="10">
+        <v>4</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -8171,15 +9041,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
       <c r="B297">
         <v>4829</v>
       </c>
       <c r="C297" s="1">
         <v>2438639</v>
       </c>
-      <c r="D297" s="2" t="s">
-        <v>12</v>
+      <c r="D297" s="10">
+        <v>4</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -8197,15 +9070,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
       <c r="B298">
         <v>4660</v>
       </c>
       <c r="C298" s="1">
         <v>2301540</v>
       </c>
-      <c r="D298" s="2" t="s">
-        <v>10</v>
+      <c r="D298" s="10">
+        <v>5</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -8223,15 +9099,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
       <c r="B299">
         <v>884</v>
       </c>
       <c r="C299" s="1">
         <v>2117519</v>
       </c>
-      <c r="D299" s="2" t="s">
-        <v>13</v>
+      <c r="D299" s="10">
+        <v>3</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -8249,15 +9128,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
       <c r="B300">
         <v>2077</v>
       </c>
       <c r="C300" s="1">
         <v>2182556</v>
       </c>
-      <c r="D300" s="2" t="s">
-        <v>12</v>
+      <c r="D300" s="10">
+        <v>4</v>
       </c>
       <c r="E300">
         <v>1</v>
@@ -8275,15 +9157,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
       <c r="B301">
         <v>4419</v>
       </c>
       <c r="C301" s="1">
         <v>2119419</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>10</v>
+      <c r="D301" s="10">
+        <v>5</v>
       </c>
       <c r="E301">
         <v>1</v>
@@ -8301,15 +9186,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
       <c r="B302">
         <v>3673</v>
       </c>
       <c r="C302" s="1">
         <v>2311459</v>
       </c>
-      <c r="D302" s="2" t="s">
-        <v>13</v>
+      <c r="D302" s="10">
+        <v>3</v>
       </c>
       <c r="E302">
         <v>1</v>
@@ -8327,15 +9215,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
       <c r="B303">
         <v>1455</v>
       </c>
       <c r="C303" s="1">
         <v>2353410</v>
       </c>
-      <c r="D303" s="2" t="s">
-        <v>13</v>
+      <c r="D303" s="10">
+        <v>3</v>
       </c>
       <c r="E303">
         <v>1</v>
@@ -8353,15 +9244,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
       <c r="B304">
         <v>2161</v>
       </c>
       <c r="C304" s="1">
         <v>2235142</v>
       </c>
-      <c r="D304" s="2" t="s">
-        <v>12</v>
+      <c r="D304" s="10">
+        <v>4</v>
       </c>
       <c r="E304">
         <v>1</v>
@@ -8379,15 +9273,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
       <c r="B305">
         <v>2190</v>
       </c>
       <c r="C305" s="1">
         <v>2252409</v>
       </c>
-      <c r="D305" s="2" t="s">
-        <v>12</v>
+      <c r="D305" s="10">
+        <v>4</v>
       </c>
       <c r="E305">
         <v>1</v>
@@ -8405,15 +9302,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
       <c r="B306">
         <v>2190</v>
       </c>
       <c r="C306" s="1">
         <v>2252409</v>
       </c>
-      <c r="D306" s="2" t="s">
-        <v>13</v>
+      <c r="D306" s="10">
+        <v>3</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -8431,15 +9331,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
       <c r="B307">
         <v>1205</v>
       </c>
       <c r="C307" s="1">
         <v>2170631</v>
       </c>
-      <c r="D307" s="2" t="s">
-        <v>12</v>
+      <c r="D307" s="10">
+        <v>4</v>
       </c>
       <c r="E307">
         <v>1</v>
@@ -8457,15 +9360,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
       <c r="B308">
         <v>7365</v>
       </c>
       <c r="C308" s="1">
         <v>2465509</v>
       </c>
-      <c r="D308" s="2" t="s">
-        <v>12</v>
+      <c r="D308" s="10">
+        <v>4</v>
       </c>
       <c r="E308">
         <v>1</v>
@@ -8483,15 +9389,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
       <c r="B309">
         <v>7365</v>
       </c>
       <c r="C309" s="1">
         <v>2465509</v>
       </c>
-      <c r="D309" s="2" t="s">
-        <v>13</v>
+      <c r="D309" s="10">
+        <v>3</v>
       </c>
       <c r="E309">
         <v>1</v>
@@ -8509,15 +9418,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
       <c r="B310">
         <v>7092</v>
       </c>
       <c r="C310" s="1">
         <v>2480109</v>
       </c>
-      <c r="D310" s="2" t="s">
-        <v>13</v>
+      <c r="D310" s="10">
+        <v>3</v>
       </c>
       <c r="E310">
         <v>1</v>
@@ -8535,15 +9447,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
       <c r="B311">
         <v>3845</v>
       </c>
       <c r="C311" s="1">
         <v>2509725</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>13</v>
+      <c r="D311" s="10">
+        <v>3</v>
       </c>
       <c r="E311">
         <v>1</v>
@@ -8561,15 +9476,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
       <c r="B312">
         <v>4809</v>
       </c>
       <c r="C312" s="1">
         <v>2424505</v>
       </c>
-      <c r="D312" s="2" t="s">
-        <v>12</v>
+      <c r="D312" s="10">
+        <v>4</v>
       </c>
       <c r="E312">
         <v>1</v>
@@ -8587,15 +9505,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
       <c r="B313">
         <v>4895</v>
       </c>
       <c r="C313" s="1">
         <v>2496305</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>12</v>
+      <c r="D313" s="10">
+        <v>4</v>
       </c>
       <c r="E313">
         <v>1</v>
@@ -8613,15 +9534,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
       <c r="B314">
         <v>2492</v>
       </c>
       <c r="C314" s="1">
         <v>2562086</v>
       </c>
-      <c r="D314" s="2" t="s">
-        <v>12</v>
+      <c r="D314" s="10">
+        <v>4</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -8639,15 +9563,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
       <c r="B315">
         <v>801</v>
       </c>
       <c r="C315" s="1">
         <v>2074813</v>
       </c>
-      <c r="D315" s="2" t="s">
-        <v>12</v>
+      <c r="D315" s="10">
+        <v>4</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -8665,15 +9592,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
       <c r="B316">
         <v>1251</v>
       </c>
       <c r="C316" s="1">
         <v>2374310</v>
       </c>
-      <c r="D316" s="2" t="s">
-        <v>12</v>
+      <c r="D316" s="10">
+        <v>4</v>
       </c>
       <c r="E316">
         <v>1</v>
@@ -8691,15 +9621,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
       <c r="B317">
         <v>825</v>
       </c>
       <c r="C317" s="1">
         <v>2203116</v>
       </c>
-      <c r="D317" s="2" t="s">
-        <v>12</v>
+      <c r="D317" s="10">
+        <v>4</v>
       </c>
       <c r="E317">
         <v>1</v>
@@ -8735,7 +9668,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
